--- a/Documentos/Rotas.xlsx
+++ b/Documentos/Rotas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo_tjj0fgx\Desktop\Cursos\UTFPR\7 º Período\Programação WEB 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo_tjj0fgx\Desktop\Cursos\UTFPR\7 º Período\Programação WEB 2\mathool\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B513DE3-7208-43F6-ACB7-71DB14BA20F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91AAF5E-2F53-47DD-B17C-07C5A088D875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27990" yWindow="-1020" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{8F7A87BE-9951-4AB0-9EFB-F67A7F4315C1}"/>
   </bookViews>
@@ -260,15 +260,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -276,20 +282,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,7 +637,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E1" sqref="E1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,173 +650,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="1"/>
@@ -846,6 +875,7 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -854,7 +884,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,167 +898,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>58</v>
       </c>
     </row>
